--- a/Excels ressources/FichierRessources.xlsx
+++ b/Excels ressources/FichierRessources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maily\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maily\PycharmProjects\SAE_pycharm\Excels ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C75D7C56-445B-40E4-804E-85B6F6889B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEA5898-EB0D-4380-A5E3-23A83E20071A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Ressource</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>TD</t>
-  </si>
-  <si>
-    <t>TP dédoublés</t>
   </si>
   <si>
     <t>TP</t>
@@ -130,9 +127,6 @@
     <t xml:space="preserve">4h </t>
   </si>
   <si>
-    <t>TP non  dédoublés</t>
-  </si>
-  <si>
     <t>Autres informations :</t>
   </si>
   <si>
@@ -143,12 +137,6 @@
   </si>
   <si>
     <t>VOLE INFO PLANNING</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Service prévisionnel vacataires</t>
   </si>
   <si>
     <t>(Ne pas oublier d’inclure les tests)</t>
@@ -223,25 +211,40 @@
     <t>Total en HETD</t>
   </si>
   <si>
-    <t>Rim Jouini</t>
-  </si>
-  <si>
-    <t>BUT1</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>Jonathan Staimphin</t>
-  </si>
-  <si>
-    <t>Service prévisionnel titulaires</t>
+    <t>CM (h)</t>
+  </si>
+  <si>
+    <t>TD (h)</t>
+  </si>
+  <si>
+    <t>TP (h)</t>
+  </si>
+  <si>
+    <t>test (h)</t>
+  </si>
+  <si>
+    <t>Service previsionnel vacataires</t>
+  </si>
+  <si>
+    <t>Service previsionnel titulaires</t>
+  </si>
+  <si>
+    <t>TP non dedoubles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD </t>
+  </si>
+  <si>
+    <t>TP dedoubles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -506,16 +509,11 @@
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,14 +522,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -544,17 +539,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -569,17 +560,9 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -588,6 +571,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,30 +924,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -954,640 +957,600 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+    </row>
+    <row r="12" spans="1:12" ht="30">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="30">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="D13" s="43" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="9" t="s">
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="44"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="D14" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="46"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="9"/>
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="11"/>
+      <c r="B20" s="19"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="9"/>
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="9"/>
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9"/>
+      <c r="B24" s="14"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="D26" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9"/>
+      <c r="B27" s="14"/>
+      <c r="D27" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="11"/>
+      <c r="B30" s="19"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" thickBot="1">
+      <c r="B34" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A35" s="25"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A36" s="26"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A37" s="25"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A38" s="26"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A39" s="26"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="29"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15.75">
+      <c r="A43" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+    </row>
+    <row r="44" spans="1:17" ht="47.25">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="D13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="D14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="9" t="s">
+      <c r="G44" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="19"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="13"/>
-      <c r="B17" s="20"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="17"/>
-      <c r="B20" s="26"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="13"/>
-      <c r="B22" s="20"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="13"/>
-      <c r="B23" s="20"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="13"/>
-      <c r="B24" s="20"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="D26" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="13"/>
-      <c r="B27" s="20"/>
-      <c r="D27" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="17"/>
-      <c r="B30" s="26"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="2" t="s">
+      <c r="H44" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="P44" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="33"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="33"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="33"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="33"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="38"/>
+      <c r="C51" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="5" t="s">
+    </row>
+    <row r="52" spans="1:17" ht="15.75">
+      <c r="A52" s="36" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1">
-      <c r="B34" s="34" t="s">
+      <c r="B52" s="36"/>
+      <c r="C52" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+    </row>
+    <row r="53" spans="1:17" ht="47.25">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="G53" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A35" s="35"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A36" s="36"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A37" s="35"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A38" s="36"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A39" s="36"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="37"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="39"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="40"/>
-      <c r="C42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="15.75">
-      <c r="A43" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="41" t="s">
+      <c r="H53" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="I53" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="41" t="s">
+      <c r="J53" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41" t="s">
+      <c r="K53" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-    </row>
-    <row r="44" spans="1:17" ht="47.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="43" t="s">
+      <c r="L53" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="43" t="s">
+      <c r="M53" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="I44" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J44" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="K44" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L44" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="O44" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="P44" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q44" s="43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="47"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="47"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="47"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="47"/>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="40"/>
-      <c r="C51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="15.75">
-      <c r="A52" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="41" t="s">
+      <c r="N53" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="O53" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F52" s="41" t="s">
+      <c r="P53" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41" t="s">
+      <c r="Q53" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-    </row>
-    <row r="53" spans="1:17" ht="47.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="G53" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="H53" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="I53" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J53" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="K53" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="L53" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="M53" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="N53" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="O53" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="P53" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q53" s="43" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="47"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="33"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="45"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="47"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="33"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="45"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="45"/>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="47"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="33"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="45"/>
-      <c r="O57" s="45"/>
-      <c r="P57" s="46"/>
-      <c r="Q57" s="47"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:K52"/>
-    <mergeCell ref="L52:Q52"/>
-    <mergeCell ref="L43:Q43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D27:H30"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="D24:F24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B6:L6"/>
@@ -1598,6 +1561,34 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="I14:J14"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D27:H30"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="L43:Q43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:K52"/>
+    <mergeCell ref="L52:Q52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A52:B53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excels ressources/FichierRessources.xlsx
+++ b/Excels ressources/FichierRessources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maily\PycharmProjects\SAE_pycharm\Excels ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEA5898-EB0D-4380-A5E3-23A83E20071A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1FA9C6-73DA-4F71-A881-E750CFFCCD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Ressource</t>
   </si>
@@ -139,6 +139,9 @@
     <t>VOLE INFO PLANNING</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>(Ne pas oublier d’inclure les tests)</t>
   </si>
   <si>
@@ -211,41 +214,32 @@
     <t>Total en HETD</t>
   </si>
   <si>
+    <t xml:space="preserve">CM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD </t>
+  </si>
+  <si>
+    <t>TP dedoubles</t>
+  </si>
+  <si>
+    <t>TP non  dedoubles</t>
+  </si>
+  <si>
     <t>CM (h)</t>
   </si>
   <si>
-    <t>TD (h)</t>
-  </si>
-  <si>
-    <t>TP (h)</t>
-  </si>
-  <si>
-    <t>test (h)</t>
-  </si>
-  <si>
     <t>Service previsionnel vacataires</t>
   </si>
   <si>
     <t>Service previsionnel titulaires</t>
-  </si>
-  <si>
-    <t>TP non dedoubles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD </t>
-  </si>
-  <si>
-    <t>TP dedoubles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,11 +255,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFC9211E"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
     </font>
@@ -342,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -473,41 +462,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -547,39 +506,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -591,6 +535,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -937,9 +890,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -969,31 +922,31 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
     </row>
     <row r="12" spans="1:12" ht="30">
       <c r="A12" s="4" t="s">
@@ -1005,553 +958,589 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44" t="s">
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="44"/>
+      <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="46" t="s">
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="46"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="13"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="9"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
+      <c r="A18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="13"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="11"/>
-      <c r="B20" s="19"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="9"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="19"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="9"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="9"/>
       <c r="B24" s="14"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="14"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="D26" s="40" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="14"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="D28" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="9"/>
-      <c r="B27" s="14"/>
-      <c r="D27" s="39" t="s">
+      <c r="E28" s="33"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="9"/>
+      <c r="B29" s="14"/>
+      <c r="D29" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="11"/>
-      <c r="B30" s="19"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="19"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1">
-      <c r="B34" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A37" s="25"/>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="B36" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A38" s="26"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A39" s="26"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="29"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="38"/>
-      <c r="C42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="15.75">
-      <c r="A43" s="36" t="s">
+      <c r="A42" s="25"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="27"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="42"/>
+      <c r="C44" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37" t="s">
+    </row>
+    <row r="45" spans="1:17" ht="15.75">
+      <c r="A45" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="B45" s="44"/>
+      <c r="C45" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="D45" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="36" t="s">
+      <c r="E45" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36" t="s">
+      <c r="F45" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="36"/>
-    </row>
-    <row r="44" spans="1:17" ht="47.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="30" t="s">
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+    </row>
+    <row r="46" spans="1:17" ht="47.25">
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="30" t="s">
+      <c r="G46" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="30" t="s">
+      <c r="H46" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="O46" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P46" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q46" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="31"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="31"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="31"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="31"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="42"/>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15.75">
+      <c r="A54" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="44"/>
+      <c r="C54" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="30" t="s">
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+    </row>
+    <row r="55" spans="1:17" ht="47.25">
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="30" t="s">
+      <c r="I55" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="K44" s="30" t="s">
+      <c r="J55" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="L44" s="30" t="s">
+      <c r="K55" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L55" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="30" t="s">
+      <c r="M55" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="N44" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="O44" s="30" t="s">
+      <c r="N55" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="P44" s="30" t="s">
+      <c r="O55" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="Q44" s="30" t="s">
+      <c r="P55" s="28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="33"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="33"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="33"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="33"/>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="38"/>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="15.75">
-      <c r="A52" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
-    </row>
-    <row r="53" spans="1:17" ht="47.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="G53" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H53" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I53" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J53" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="K53" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="L53" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="M53" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N53" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="O53" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="P53" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q53" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="33"/>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="33"/>
+      <c r="Q55" s="28" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="33"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="31"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="32"/>
-      <c r="Q57" s="33"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="31"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="46"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="31"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="L45:Q45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D29:H32"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B6:L6"/>
     <mergeCell ref="A7:B7"/>
@@ -1561,35 +1550,13 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D27:H30"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="L43:Q43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:K52"/>
-    <mergeCell ref="L52:Q52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="D26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excels ressources/FichierRessources.xlsx
+++ b/Excels ressources/FichierRessources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maily\PycharmProjects\SAE_pycharm\Excels ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1FA9C6-73DA-4F71-A881-E750CFFCCD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E3D1EC-200D-4E40-A70B-3B08D5630DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>Ressource</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>Service previsionnel titulaires</t>
+  </si>
+  <si>
+    <t>AAAA-MM-JJ</t>
   </si>
 </sst>
 </file>
@@ -524,6 +527,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -535,15 +547,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -890,9 +893,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -922,31 +925,31 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
     </row>
     <row r="12" spans="1:12" ht="30">
       <c r="A12" s="4" t="s">
@@ -961,32 +964,32 @@
         <v>30</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37" t="s">
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="37"/>
+      <c r="J13" s="42"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39" t="s">
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="39"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="9"/>
@@ -1024,22 +1027,22 @@
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="11"/>
       <c r="B22" s="19"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6" t="s">
@@ -1047,8 +1050,8 @@
       </c>
       <c r="B23" s="13"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="9"/>
@@ -1061,9 +1064,9 @@
     <row r="26" spans="1:8">
       <c r="A26" s="9"/>
       <c r="B26" s="14"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="21"/>
@@ -1074,10 +1077,10 @@
         <v>33</v>
       </c>
       <c r="B28" s="13"/>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="33"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="8"/>
@@ -1085,40 +1088,40 @@
     <row r="29" spans="1:8">
       <c r="A29" s="9"/>
       <c r="B29" s="14"/>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11"/>
       <c r="B32" s="19"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
@@ -1132,6 +1135,9 @@
       <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
       <c r="B36" s="24" t="s">
         <v>34</v>
       </c>
@@ -1198,51 +1204,51 @@
       <c r="A43" s="27"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="42"/>
+      <c r="B44" s="36"/>
       <c r="C44" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="15.75">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="45" t="s">
+      <c r="B45" s="34"/>
+      <c r="C45" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="44" t="s">
+      <c r="E45" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="44" t="s">
+      <c r="F45" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44" t="s">
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
     </row>
     <row r="46" spans="1:17" ht="47.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
       <c r="F46" s="28" t="s">
         <v>4</v>
       </c>
@@ -1281,8 +1287,8 @@
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
@@ -1300,8 +1306,8 @@
       <c r="Q47" s="31"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
@@ -1319,8 +1325,8 @@
       <c r="Q48" s="31"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
@@ -1338,8 +1344,8 @@
       <c r="Q49" s="31"/>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
@@ -1357,51 +1363,51 @@
       <c r="Q50" s="31"/>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="42"/>
+      <c r="B53" s="36"/>
       <c r="C53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="15.75">
-      <c r="A54" s="44" t="s">
+      <c r="A54" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="45" t="s">
+      <c r="B54" s="34"/>
+      <c r="C54" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="44" t="s">
+      <c r="D54" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="44" t="s">
+      <c r="E54" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F54" s="44" t="s">
+      <c r="F54" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="44"/>
-      <c r="L54" s="44" t="s">
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M54" s="44"/>
-      <c r="N54" s="44"/>
-      <c r="O54" s="44"/>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="44"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
     </row>
     <row r="55" spans="1:17" ht="47.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
       <c r="F55" s="28" t="s">
         <v>4</v>
       </c>
@@ -1440,8 +1446,8 @@
       </c>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="46"/>
-      <c r="B56" s="46"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
       <c r="E56" s="32"/>
@@ -1459,8 +1465,8 @@
       <c r="Q56" s="31"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="46"/>
-      <c r="B57" s="46"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
@@ -1478,8 +1484,8 @@
       <c r="Q57" s="31"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="46"/>
-      <c r="B58" s="46"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
@@ -1497,8 +1503,8 @@
       <c r="Q58" s="31"/>
     </row>
     <row r="59" spans="1:17">
-      <c r="A59" s="46"/>
-      <c r="B59" s="46"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
@@ -1517,29 +1523,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:K54"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="L45:Q45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D29:H32"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:K45"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B6:L6"/>
@@ -1555,6 +1538,29 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D29:H32"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="L45:Q45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A54:B55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Excels ressources/FichierRessources.xlsx
+++ b/Excels ressources/FichierRessources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maily\PycharmProjects\SAE_pycharm\Excels ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E3D1EC-200D-4E40-A70B-3B08D5630DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE96668D-0192-43DD-A817-426F7309B6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>Ressource</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>AAAA-MM-JJ</t>
+  </si>
+  <si>
+    <t>Total final HETD</t>
   </si>
 </sst>
 </file>
@@ -527,15 +530,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -547,6 +541,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="T55" sqref="T55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -893,9 +896,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -925,31 +928,31 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
     </row>
     <row r="12" spans="1:12" ht="30">
       <c r="A12" s="4" t="s">
@@ -964,32 +967,32 @@
         <v>30</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42" t="s">
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="42"/>
+      <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44" t="s">
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="44"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="9"/>
@@ -1027,22 +1030,22 @@
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="11"/>
       <c r="B22" s="19"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6" t="s">
@@ -1050,8 +1053,8 @@
       </c>
       <c r="B23" s="13"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="9"/>
@@ -1064,9 +1067,9 @@
     <row r="26" spans="1:8">
       <c r="A26" s="9"/>
       <c r="B26" s="14"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="21"/>
@@ -1077,10 +1080,10 @@
         <v>33</v>
       </c>
       <c r="B28" s="13"/>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="38"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="8"/>
@@ -1088,42 +1091,42 @@
     <row r="29" spans="1:8">
       <c r="A29" s="9"/>
       <c r="B29" s="14"/>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11"/>
       <c r="B32" s="19"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -1131,10 +1134,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:18">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1151,37 +1154,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:18">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:18">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:18">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:18">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:18">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:18">
       <c r="A42" s="25"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
@@ -1200,55 +1203,55 @@
       <c r="P42" s="26"/>
       <c r="Q42" s="26"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:18">
       <c r="A43" s="27"/>
     </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="36" t="s">
+    <row r="44" spans="1:18">
+      <c r="A44" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="36"/>
+      <c r="B44" s="42"/>
       <c r="C44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15.75">
-      <c r="A45" s="34" t="s">
+    <row r="45" spans="1:18" ht="15.75">
+      <c r="A45" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="35" t="s">
+      <c r="B45" s="44"/>
+      <c r="C45" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34" t="s">
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-    </row>
-    <row r="46" spans="1:17" ht="47.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+    </row>
+    <row r="46" spans="1:18" ht="47.25">
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
       <c r="F46" s="28" t="s">
         <v>4</v>
       </c>
@@ -1285,10 +1288,13 @@
       <c r="Q46" s="28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
+      <c r="R46" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
@@ -1304,10 +1310,11 @@
       <c r="O47" s="29"/>
       <c r="P47" s="30"/>
       <c r="Q47" s="31"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
+      <c r="R47" s="31"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
@@ -1323,10 +1330,11 @@
       <c r="O48" s="29"/>
       <c r="P48" s="30"/>
       <c r="Q48" s="31"/>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
+      <c r="R48" s="31"/>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
@@ -1342,10 +1350,11 @@
       <c r="O49" s="29"/>
       <c r="P49" s="30"/>
       <c r="Q49" s="31"/>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
+      <c r="R49" s="31"/>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
@@ -1361,53 +1370,54 @@
       <c r="O50" s="29"/>
       <c r="P50" s="30"/>
       <c r="Q50" s="31"/>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="36" t="s">
+      <c r="R50" s="31"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="36"/>
+      <c r="B53" s="42"/>
       <c r="C53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15.75">
-      <c r="A54" s="34" t="s">
+    <row r="54" spans="1:18" ht="15.75">
+      <c r="A54" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="34"/>
-      <c r="C54" s="35" t="s">
+      <c r="B54" s="44"/>
+      <c r="C54" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D54" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="34" t="s">
+      <c r="E54" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F54" s="34" t="s">
+      <c r="F54" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34" t="s">
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-    </row>
-    <row r="55" spans="1:17" ht="47.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+    </row>
+    <row r="55" spans="1:18" ht="47.25">
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
       <c r="F55" s="28" t="s">
         <v>4</v>
       </c>
@@ -1444,10 +1454,13 @@
       <c r="Q55" s="28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
+      <c r="R55" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
       <c r="E56" s="32"/>
@@ -1463,10 +1476,11 @@
       <c r="O56" s="29"/>
       <c r="P56" s="30"/>
       <c r="Q56" s="31"/>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
+      <c r="R56" s="31"/>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
@@ -1482,10 +1496,11 @@
       <c r="O57" s="29"/>
       <c r="P57" s="30"/>
       <c r="Q57" s="31"/>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
+      <c r="R57" s="31"/>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="46"/>
+      <c r="B58" s="46"/>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
@@ -1501,10 +1516,11 @@
       <c r="O58" s="29"/>
       <c r="P58" s="30"/>
       <c r="Q58" s="31"/>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
+      <c r="R58" s="31"/>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
       <c r="E59" s="29"/>
@@ -1520,9 +1536,33 @@
       <c r="O59" s="29"/>
       <c r="P59" s="30"/>
       <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="L45:Q45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D29:H32"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:K45"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B6:L6"/>
@@ -1538,29 +1578,6 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D29:H32"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="L45:Q45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:K54"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A54:B55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
